--- a/resources/箱包/Sports & Leisure Bags.xlsx
+++ b/resources/箱包/Sports & Leisure Bags.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sports &amp; Leisure Bags" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="52">
   <si>
     <t>Material</t>
   </si>
   <si>
-    <t>材料</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Genuine Leather</t>
   </si>
   <si>
@@ -44,9 +40,6 @@
   </si>
   <si>
     <t>Neoprene</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
   <si>
     <t>Silicone Rubber</t>
@@ -183,6 +176,9 @@
   </si>
   <si>
     <t>4 Persons</t>
+  </si>
+  <si>
+    <t>列1</t>
   </si>
 </sst>
 </file>
@@ -276,6 +272,19 @@
     <dxf>
       <font>
         <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1075,6 +1084,63 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1095,76 +1161,6 @@
           <bgColor theme="5"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1323,143 +1319,143 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表15" displayName="表15" ref="A1:B10" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
-  <autoFilter ref="A1:B10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表15" displayName="表15" ref="A1:B19" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+  <autoFilter ref="A1:B19"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Material" dataDxfId="53"/>
-    <tableColumn id="2" name="材料" dataDxfId="52"/>
+    <tableColumn id="2" name="列1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="表4_811" displayName="表4_811" ref="A1:A8" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="表4_811" displayName="表4_811" ref="A1:A8" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="A1:A8"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Material" dataDxfId="16"/>
+    <tableColumn id="1" name="Material" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="表4_671013" displayName="表4_671013" ref="A10:A12" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="表4_671013" displayName="表4_671013" ref="A10:A12" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="A10:A12"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Use" dataDxfId="12"/>
+    <tableColumn id="1" name="Use" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="表4_814" displayName="表4_814" ref="A1:A8" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="表4_814" displayName="表4_814" ref="A1:A8" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="A1:A8"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Material" dataDxfId="8"/>
+    <tableColumn id="1" name="Material" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="表4_817" displayName="表4_817" ref="A1:A8" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="表4_817" displayName="表4_817" ref="A1:A8" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A1:A8"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Material" dataDxfId="4"/>
+    <tableColumn id="1" name="Material" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="表4_6918" displayName="表4_6918" ref="A10:A12" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="表4_6918" displayName="表4_6918" ref="A10:A12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A10:A12"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Type" dataDxfId="0"/>
+    <tableColumn id="1" name="Type" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表15_3" displayName="表15_3" ref="A12:B19" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
-  <autoFilter ref="A12:B19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表15_3" displayName="表15_3" ref="A21:B29" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+  <autoFilter ref="A21:B29"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Use" dataDxfId="49"/>
-    <tableColumn id="2" name="用途" dataDxfId="48"/>
+    <tableColumn id="1" name="Use" dataDxfId="50"/>
+    <tableColumn id="2" name="用途" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表15_34" displayName="表15_34" ref="A21:B29" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
-  <autoFilter ref="A21:B29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表15_34" displayName="表15_34" ref="A31:B39" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+  <autoFilter ref="A31:B39"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Type" dataDxfId="45"/>
-    <tableColumn id="2" name="类型" dataDxfId="44"/>
+    <tableColumn id="1" name="Type" dataDxfId="46"/>
+    <tableColumn id="2" name="类型" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:A8" totalsRowShown="0" headerRowDxfId="40" dataDxfId="41" tableBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:A8" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42">
   <autoFilter ref="A1:A8"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Material" dataDxfId="42"/>
+    <tableColumn id="1" name="Material" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表4_6" displayName="表4_6" ref="A10:A17" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" tableBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表4_6" displayName="表4_6" ref="A10:A17" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" tableBorderDxfId="38">
   <autoFilter ref="A10:A17"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Type" dataDxfId="36"/>
+    <tableColumn id="1" name="Type" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表4_67" displayName="表4_67" ref="A19:A23" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表4_67" displayName="表4_67" ref="A19:A23" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" tableBorderDxfId="34">
   <autoFilter ref="A19:A23"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Use" dataDxfId="32"/>
+    <tableColumn id="1" name="Use" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表4_8" displayName="表4_8" ref="A1:A8" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" tableBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表4_8" displayName="表4_8" ref="A1:A8" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31" tableBorderDxfId="30">
   <autoFilter ref="A1:A8"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Material" dataDxfId="28"/>
+    <tableColumn id="1" name="Material" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表4_69" displayName="表4_69" ref="A10:A14" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" tableBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表4_69" displayName="表4_69" ref="A10:A14" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" tableBorderDxfId="26">
   <autoFilter ref="A10:A14"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Type" dataDxfId="24"/>
+    <tableColumn id="1" name="Type" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="表4_6710" displayName="表4_6710" ref="A16:A23" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" tableBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="表4_6710" displayName="表4_6710" ref="A16:A23" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" tableBorderDxfId="22">
   <autoFilter ref="A16:A23"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Use" dataDxfId="20"/>
+    <tableColumn id="1" name="Use" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1752,10 +1748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1769,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
@@ -1780,157 +1776,215 @@
     </row>
     <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1"/>
     </row>
     <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A29" s="1"/>
       <c r="B29" s="1"/>
+    </row>
+    <row r="31" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1948,7 +2002,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A1:XFD1048576"/>
+      <selection activeCell="A5" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1963,102 +2017,102 @@
     </row>
     <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2077,7 +2131,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A5" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2092,102 +2146,102 @@
     </row>
     <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2206,7 +2260,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A7" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2221,52 +2275,52 @@
     </row>
     <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2284,7 +2338,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A8" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2299,37 +2353,37 @@
     </row>
     <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2345,8 +2399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2361,52 +2415,52 @@
     </row>
     <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
